--- a/Links.xlsx
+++ b/Links.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mihir\Academics\Searce Internship\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mihir\Academics\Searce Internship\Searce\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14539B64-A9F6-4510-9189-49275680509F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30C7FE2F-D6A7-412A-94E8-F3C1C2866FC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6030" yWindow="2280" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Searce Internship</t>
   </si>
@@ -91,6 +91,12 @@
   </si>
   <si>
     <t>https://acloudguru.com/blog/engineering/what-is-go-an-intro-to-googles-go-programming-language-aka-golang</t>
+  </si>
+  <si>
+    <t>Google Cloud Learning</t>
+  </si>
+  <si>
+    <t>https://inthecloud.withgoogle.com/cloud-learning-paths-22/register.html?utm_source=linkedin&amp;utm_medium=unpaidsoc&amp;utm_campaign=FY22-Q1-global-ENTD25-onlineevent-er-Feb2022CloudLearningPaths&amp;utm_content=feb&amp;linkId=8028935#CloudTrainingTuesday</t>
   </si>
 </sst>
 </file>
@@ -166,7 +172,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -183,6 +189,9 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -465,10 +474,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C34"/>
+  <dimension ref="A1:C36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -584,6 +593,14 @@
       </c>
       <c r="C34" s="5" t="s">
         <v>21</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>22</v>
+      </c>
+      <c r="C36" s="9" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
